--- a/biology/Médecine/Chordae_tendineae/Chordae_tendineae.xlsx
+++ b/biology/Médecine/Chordae_tendineae/Chordae_tendineae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chordae tendineae ou cordes tendineuses sont des cordons inélastiques de tissu conjonctif fibreux qui relient les muscles papillaires à la valvule tricuspide et à la valvule mitrale du cœur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chordae tendineae ou cordes tendineuses sont des cordons inélastiques de tissu conjonctif fibreux qui relient les muscles papillaires à la valvule tricuspide et à la valvule mitrale du cœur.
 </t>
         </is>
       </c>
@@ -511,11 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cordes tendineuses relient les valves auriculo-ventriculaires (tricuspide et mitrale) aux muscles papillaires des ventricules. Les cordes tendineuses contiennent de l'élastine dans une structure délicate notamment à leur périphérie[2].
-Tendon de Todaro
-Le tendon de Todaro est une continuation de la valvule de la veine cave inférieure et de la valvule du Thebesius. Avec l'ouverture du sinus coronaire et la cuspide septale de la valvule tricuspide, il constitue le triangle de Koch. Le sommet du triangle de Koch est l'emplacement du nœud auriculo-ventriculaire[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cordes tendineuses relient les valves auriculo-ventriculaires (tricuspide et mitrale) aux muscles papillaires des ventricules. Les cordes tendineuses contiennent de l'élastine dans une structure délicate notamment à leur périphérie.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fonction</t>
+          <t>Structure</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendant la systole auriculaire, le sang circule des oreillettes vers les ventricules selon le gradient de pression. Les cordes tendineuses sont détendues parce que les valves auriculo-ventriculaires sont ouvertes de force[4].
-Lorsque les ventricules du cœur se contractent lors de la systole ventriculaire, l'augmentation de la pression artérielle dans les deux chambres pousse les valvules atrio-ventriculaire à se fermer simultanément, empêchant ainsi le reflux du sang dans les oreillettes. Puisque la pression artérielle dans les oreillettes est bien inférieure à celle dans les ventricules, les lambeaux tentent de se diriger vers les régions de basse pression. Les cordes tendineuses empêchent ce prolapsus en se tendant, ce qui tire sur les rabats, les maintenant en position fermée[4].
+          <t>Tendon de Todaro</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tendon de Todaro est une continuation de la valvule de la veine cave inférieure et de la valvule du Thebesius. Avec l'ouverture du sinus coronaire et la cuspide septale de la valvule tricuspide, il constitue le triangle de Koch. Le sommet du triangle de Koch est l'emplacement du nœud auriculo-ventriculaire.
 </t>
         </is>
       </c>
@@ -573,15 +590,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la systole auriculaire, le sang circule des oreillettes vers les ventricules selon le gradient de pression. Les cordes tendineuses sont détendues parce que les valves auriculo-ventriculaires sont ouvertes de force.
+Lorsque les ventricules du cœur se contractent lors de la systole ventriculaire, l'augmentation de la pression artérielle dans les deux chambres pousse les valvules atrio-ventriculaire à se fermer simultanément, empêchant ainsi le reflux du sang dans les oreillettes. Puisque la pression artérielle dans les oreillettes est bien inférieure à celle dans les ventricules, les lambeaux tentent de se diriger vers les régions de basse pression. Les cordes tendineuses empêchent ce prolapsus en se tendant, ce qui tire sur les rabats, les maintenant en position fermée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chordae_tendineae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chordae_tendineae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Signification clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordes tendineuses rompues
-Les valvulopathies cardiaque peuvent entraîner une rupture des cordes tendineuses[5]. Cela peut provoquer une insuffisance mitrale sévère[5],[6].
-Valve mitrale en parachute
-La valvule mitrale en parachute se produit lorsque toutes les cordes tendineuses de la valvule mitrale s'attachent à un seul muscle papillaire[7]. Cela provoque une sténose de la valve mitrale à un âge précoce. Il s'agit d'une cardiapathie congénitale rare[8]. Bien qu'elle provoque souvent une insuffisance mitrale, elle peut ne présenter aucun symptôme[9].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cordes tendineuses rompues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les valvulopathies cardiaque peuvent entraîner une rupture des cordes tendineuses. Cela peut provoquer une insuffisance mitrale sévère,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chordae_tendineae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chordae_tendineae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Signification clinique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Valve mitrale en parachute</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valvule mitrale en parachute se produit lorsque toutes les cordes tendineuses de la valvule mitrale s'attachent à un seul muscle papillaire. Cela provoque une sténose de la valve mitrale à un âge précoce. Il s'agit d'une cardiapathie congénitale rare. Bien qu'elle provoque souvent une insuffisance mitrale, elle peut ne présenter aucun symptôme.
 </t>
         </is>
       </c>
